--- a/指令表.xlsx
+++ b/指令表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1C43F8C6-5D46-46CB-9184-C2B68623C25A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B7574D9E-7ED5-43C0-8F85-B784BFA6D73A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,22 @@
   </si>
   <si>
     <t>HALT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -527,6 +543,23 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
